--- a/data/outputs/management/94.xlsx
+++ b/data/outputs/management/94.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ83"/>
+  <dimension ref="A1:BR83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1350,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4918127</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1564,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>8380780</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1769,6 +1786,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1986,6 +2004,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4184120</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2199,6 +2222,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3943199</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2412,6 +2440,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3974610</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2621,6 +2654,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2834,6 +2868,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3035,6 +3070,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3252,6 +3288,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3449,6 +3486,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>3727541</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3662,6 +3704,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3863,6 +3906,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>9081361</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4072,6 +4120,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4289,6 +4338,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4490,6 +4540,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4707,6 +4758,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4916,6 +4968,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4899365</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5129,6 +5186,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>3845985</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5334,6 +5396,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5543,6 +5606,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5756,6 +5820,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3897244</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5957,6 +6026,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6158,6 +6228,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6359,6 +6430,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6568,6 +6640,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6773,6 +6846,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3972705</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6982,6 +7060,11 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>3983692</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7179,6 +7262,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>3943192</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7476,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4980158</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7601,6 +7694,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7802,6 +7896,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7991,6 +8086,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>9278097</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8200,6 +8300,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8409,6 +8510,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8610,6 +8712,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8811,6 +8914,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9020,6 +9124,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9229,6 +9334,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9430,6 +9536,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9631,6 +9738,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3018933</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9840,6 +9952,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>2677606</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10045,6 +10162,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2773278</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10246,6 +10368,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10451,6 +10574,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10656,6 +10780,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4824232</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10865,6 +10994,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11066,6 +11196,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>2949064</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11267,6 +11402,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11476,6 +11612,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>16276363</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11681,6 +11822,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11886,6 +12028,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>2726416</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12095,6 +12242,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>3062067</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12292,6 +12444,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3841814</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12493,6 +12650,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12702,6 +12860,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12887,6 +13046,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13084,6 +13244,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>2485157</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13285,6 +13450,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4512811</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13482,6 +13652,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13695,6 +13866,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>2529624</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13896,6 +14072,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>3826370</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14105,6 +14286,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14314,6 +14496,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>33611834</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14515,6 +14702,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14720,6 +14908,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>2156615</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14929,6 +15122,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>2461389</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15138,6 +15336,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15339,6 +15538,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>2318242</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15548,6 +15752,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>2405874</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15749,6 +15958,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15950,6 +16160,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16159,6 +16370,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3708026</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16364,6 +16580,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16577,6 +16794,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16778,6 +16996,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>63537579</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16987,6 +17210,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17188,6 +17412,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>2762889</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17389,6 +17618,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17598,6 +17828,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>2562284</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
